--- a/client/src/assets/template/Tvet Template.xlsx
+++ b/client/src/assets/template/Tvet Template.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Default Value" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t xml:space="preserve">Application Year</t>
   </si>
@@ -104,6 +105,231 @@
   </si>
   <si>
     <t xml:space="preserve">Mother’s Occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CivilStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binuangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolibol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Approved 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenavista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Approved 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Approved 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buntawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Approved 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Approved 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canubay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Approved 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciriaco Pastrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarin Settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolipos Alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolipos Bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulapo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dullan Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dullan Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Lamac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Langcangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Loboc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Rizal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malindang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mialen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paypayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poblacion 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poblacion 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proper Langcangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Vicente Alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Vicente Bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebucal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taboc Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taboc Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talairon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toliyok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuyabang Alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuyabang Bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuyabang Proper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Lamac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Langcangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Loboc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Rizal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villaflor</t>
   </si>
 </sst>
 </file>
@@ -113,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -133,6 +359,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -179,9 +411,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -203,23 +443,23 @@
   </sheetPr>
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z12" activeCellId="0" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.39"/>
@@ -324,6 +564,32 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2" type="list">
+      <formula1>'Default Value'!$A$2:$A$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I2" type="list">
+      <formula1>'Default Value'!$B$2:$B$48</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>'Default Value'!$D$2:$D$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+      <formula1>'Default Value'!$C$2:$C$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V2" type="list">
+      <formula1>'Default Value'!$G$2:$G$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W2" type="list">
+      <formula1>'Default Value'!$H$2:$H$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -332,4 +598,367 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>